--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="7950" windowWidth="20055" xWindow="240" yWindow="60"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -141,9 +141,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>51463316</t>
-  </si>
-  <si>
     <t>51463317</t>
   </si>
   <si>
@@ -154,13 +151,30 @@
   </si>
   <si>
     <t>05-16-2020</t>
+  </si>
+  <si>
+    <t>51480995</t>
+  </si>
+  <si>
+    <t>90001</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -182,7 +196,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,13 +208,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -220,34 +229,37 @@
       <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -256,10 +268,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -415,7 +427,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -424,13 +436,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -440,7 +452,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -449,7 +461,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -458,7 +470,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -468,12 +480,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -504,7 +516,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -523,7 +535,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -536,22 +548,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="13" max="14" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.08984375" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="49.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="18" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -564,13 +576,13 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -579,10 +591,10 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
@@ -606,10 +618,10 @@
       <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="T1" t="s">
@@ -635,14 +647,14 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>90001</v>
+      <c r="D2" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2">
-        <v>10011</v>
+      <c r="F2" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
@@ -650,11 +662,11 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
+      <c r="I2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -673,11 +685,11 @@
       <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="R2">
-        <v>222</v>
-      </c>
-      <c r="S2">
-        <v>999</v>
+      <c r="R2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="T2" t="s">
         <v>27</v>
@@ -685,8 +697,8 @@
       <c r="U2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>41</v>
+      <c r="V2" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -699,14 +711,14 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3">
-        <v>90001</v>
+      <c r="D3" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3">
-        <v>10011</v>
+      <c r="F3" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -714,11 +726,11 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
+      <c r="I3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -737,11 +749,11 @@
       <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="R3">
-        <v>222</v>
-      </c>
-      <c r="S3">
-        <v>999</v>
+      <c r="R3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="T3" t="s">
         <v>27</v>
@@ -749,10 +761,10 @@
       <c r="U3" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="6"/>
+      <c r="V3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
@@ -762,16 +774,16 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4">
-        <v>90001</v>
+        <v>42</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4">
-        <v>10011</v>
+      <c r="F4" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -779,11 +791,11 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
+      <c r="I4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -806,11 +818,11 @@
       <c r="Q4" t="s">
         <v>22</v>
       </c>
-      <c r="R4">
-        <v>222</v>
-      </c>
-      <c r="S4">
-        <v>999</v>
+      <c r="R4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="T4" t="s">
         <v>27</v>
@@ -818,15 +830,15 @@
       <c r="U4" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -839,7 +851,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -851,6 +863,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView windowHeight="7950" windowWidth="20055" xWindow="240" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Input" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -141,21 +141,12 @@
     <t>100</t>
   </si>
   <si>
-    <t>51463317</t>
-  </si>
-  <si>
     <t>DIR_C03</t>
   </si>
   <si>
-    <t>51463320</t>
-  </si>
-  <si>
     <t>05-16-2020</t>
   </si>
   <si>
-    <t>51480995</t>
-  </si>
-  <si>
     <t>90001</t>
   </si>
   <si>
@@ -169,12 +160,37 @@
   </si>
   <si>
     <t>999</t>
+  </si>
+  <si>
+    <t>51482273</t>
+  </si>
+  <si>
+    <t>51482284</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>51482286</t>
+  </si>
+  <si>
+    <t>51482299</t>
+  </si>
+  <si>
+    <t>05-12-2021</t>
+  </si>
+  <si>
+    <t>51482379</t>
+  </si>
+  <si>
+    <t>51482380</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -196,7 +212,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +224,13 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -239,27 +260,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="19">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -268,10 +305,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -427,7 +464,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -436,13 +473,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -452,7 +489,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -461,7 +498,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -470,7 +507,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -480,12 +517,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -516,7 +553,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -535,7 +572,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -548,22 +585,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="49.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="18" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.08984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -576,13 +613,13 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -591,10 +628,10 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
@@ -618,10 +655,10 @@
       <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="T1" t="s">
@@ -630,7 +667,7 @@
       <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="W1" t="s">
@@ -647,14 +684,14 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>46</v>
+      <c r="D2" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>47</v>
+      <c r="F2" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
@@ -662,11 +699,11 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>48</v>
+      <c r="I2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -685,11 +722,11 @@
       <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>50</v>
+      <c r="R2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="T2" t="s">
         <v>27</v>
@@ -697,8 +734,8 @@
       <c r="U2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>45</v>
+      <c r="V2" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -711,14 +748,14 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>46</v>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>47</v>
+      <c r="F3" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -726,11 +763,11 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>48</v>
+      <c r="I3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -749,11 +786,11 @@
       <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>50</v>
+      <c r="R3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="T3" t="s">
         <v>27</v>
@@ -761,10 +798,12 @@
       <c r="U3" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="5"/>
+      <c r="V3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
@@ -774,16 +813,16 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>47</v>
+      <c r="F4" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -791,11 +830,11 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>48</v>
+      <c r="I4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -818,11 +857,11 @@
       <c r="Q4" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>50</v>
+      <c r="R4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="T4" t="s">
         <v>27</v>
@@ -830,15 +869,13 @@
       <c r="U4" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="V4" s="6"/>
       <c r="W4" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -851,7 +888,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -863,6 +900,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -144,46 +144,91 @@
     <t>DIR_C03</t>
   </si>
   <si>
-    <t>05-16-2020</t>
-  </si>
-  <si>
     <t>90001</t>
   </si>
   <si>
     <t>10011</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>222</t>
   </si>
   <si>
     <t>999</t>
   </si>
   <si>
-    <t>51482273</t>
-  </si>
-  <si>
-    <t>51482284</t>
-  </si>
-  <si>
-    <t>05-10-2021</t>
-  </si>
-  <si>
-    <t>51482286</t>
-  </si>
-  <si>
-    <t>51482299</t>
-  </si>
-  <si>
-    <t>05-12-2021</t>
-  </si>
-  <si>
-    <t>51482379</t>
-  </si>
-  <si>
-    <t>51482380</t>
+    <t>Room of Choice</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Fulfillment Carrier</t>
+  </si>
+  <si>
+    <t>YRC</t>
+  </si>
+  <si>
+    <t>Fulfillment Carrier Id</t>
+  </si>
+  <si>
+    <t>Fulfillment Carrier1</t>
+  </si>
+  <si>
+    <t>Fulfillment Carrier Id1</t>
+  </si>
+  <si>
+    <t>Estes</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>FC Test</t>
+  </si>
+  <si>
+    <t>Bags</t>
+  </si>
+  <si>
+    <t>51483310</t>
+  </si>
+  <si>
+    <t>05-27-2021</t>
+  </si>
+  <si>
+    <t>51483311</t>
+  </si>
+  <si>
+    <t>51483316</t>
+  </si>
+  <si>
+    <t>51483974</t>
+  </si>
+  <si>
+    <t>51483975</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>51483976</t>
+  </si>
+  <si>
+    <t>51484599</t>
+  </si>
+  <si>
+    <t>06-16-2021</t>
+  </si>
+  <si>
+    <t>51484894</t>
+  </si>
+  <si>
+    <t>51484928</t>
   </si>
 </sst>
 </file>
@@ -230,12 +275,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -277,20 +333,20 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -585,25 +641,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
     <col min="13" max="14" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
     <col min="15" max="16" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.08984375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="20" max="21" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="15.08984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -613,13 +674,13 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -628,10 +689,10 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
@@ -655,43 +716,55 @@
       <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="W1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="Z1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>43</v>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>44</v>
+      <c r="F2" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
@@ -699,11 +772,11 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>45</v>
+      <c r="I2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -722,23 +795,35 @@
       <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="16" t="s">
-        <v>54</v>
+      <c r="Z2" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -748,26 +833,26 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>43</v>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>44</v>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -786,26 +871,32 @@
       <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="R3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" t="s">
         <v>27</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>53</v>
+      <c r="Z3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -815,14 +906,14 @@
       <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>43</v>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>44</v>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -830,11 +921,11 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>45</v>
+      <c r="I4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -857,22 +948,22 @@
       <c r="Q4" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="V4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" t="s">
         <v>27</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Y4" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="Z4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" s="4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charu\eclipse-workspace\qualitesoft\binaries\FCfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{F30925C5-A046-4EA7-9EE2-A0AFF63BE34D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3839F170-8731-4EEC-9B4B-0589E3A6077E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Test1234</t>
   </si>
   <si>
-    <t>DIR_C02</t>
-  </si>
-  <si>
     <t>shipmentType</t>
   </si>
   <si>
@@ -201,62 +198,25 @@
     <t>Bags</t>
   </si>
   <si>
-    <t>51483976</t>
-  </si>
-  <si>
-    <t>51486142</t>
-  </si>
-  <si>
-    <t>07-07-2021</t>
-  </si>
-  <si>
-    <t>51486204</t>
-  </si>
-  <si>
-    <t>51486335</t>
-  </si>
-  <si>
-    <t>51486337</t>
-  </si>
-  <si>
-    <t>51486348</t>
-  </si>
-  <si>
-    <t>51486350</t>
-  </si>
-  <si>
-    <t>51486357</t>
-  </si>
-  <si>
-    <t>51486802</t>
-  </si>
-  <si>
-    <t>51486803</t>
-  </si>
-  <si>
-    <t>07-09-2021</t>
-  </si>
-  <si>
-    <t>51486804</t>
-  </si>
-  <si>
-    <t>51486896</t>
-  </si>
-  <si>
-    <t>51486897</t>
-  </si>
-  <si>
-    <t>51486898</t>
-  </si>
-  <si>
-    <t>51486941</t>
+    <t>51488516</t>
+  </si>
+  <si>
+    <t>51488691</t>
+  </si>
+  <si>
+    <t>07-28-2021</t>
+  </si>
+  <si>
+    <t>51488698</t>
+  </si>
+  <si>
+    <t>Clone_DIR_C02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +238,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,7 +251,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
@@ -301,167 +261,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -492,163 +297,49 @@
       <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="8" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="12" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="16" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="18" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="20" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="22" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="24" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="26" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="28" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="30" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="32" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="34" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="36" xfId="0" applyFill="true" applyBorder="true"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -665,10 +356,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -703,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,7 +446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,7 +551,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -869,13 +560,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -885,7 +576,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -894,7 +585,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -903,7 +594,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -913,12 +604,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -949,7 +640,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -968,7 +659,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -980,33 +671,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="13" max="14" bestFit="true" customWidth="true" width="49.33203125" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="20" max="21" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="15.08984375" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="49.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="18" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1039,34 +731,34 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>52</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>11</v>
@@ -1075,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="X1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y1" t="s">
         <v>13</v>
@@ -1087,36 +779,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -1125,10 +817,10 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1136,34 +828,34 @@
         <v>22</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="V2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="X2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="23" t="s">
-        <v>72</v>
+        <v>26</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1171,40 +863,40 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1212,31 +904,31 @@
         <v>22</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="X3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" s="25" t="s">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1244,93 +936,93 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
         <v>22</v>
       </c>
       <c r="V4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="X4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z4" s="27" t="s">
-        <v>75</v>
+        <v>26</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="AA4" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3839F170-8731-4EEC-9B4B-0589E3A6077E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8D20A93D-796B-4F01-AA76-1C6F6855F4FF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Input" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Bags</t>
   </si>
   <si>
-    <t>51488516</t>
-  </si>
-  <si>
     <t>51488691</t>
   </si>
   <si>
@@ -211,12 +208,19 @@
   </si>
   <si>
     <t>Clone_DIR_C02</t>
+  </si>
+  <si>
+    <t>51488696</t>
+  </si>
+  <si>
+    <t>51490130</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +242,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +269,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -318,28 +332,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="12">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -356,10 +378,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -394,7 +416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,7 +573,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -560,13 +582,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -576,7 +598,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -585,7 +607,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -594,7 +616,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -604,12 +626,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -640,7 +662,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -659,7 +681,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -671,29 +693,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="49.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="18" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.85546875" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="20" max="21" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -851,8 +873,8 @@
       <c r="Y2" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>59</v>
+      <c r="Z2" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -863,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>41</v>
@@ -922,10 +944,10 @@
         <v>26</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -993,36 +1015,36 @@
         <v>26</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA4" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8D20A93D-796B-4F01-AA76-1C6F6855F4FF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355AF071-EB01-4D54-8EB3-2108635B788E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -198,29 +198,25 @@
     <t>Bags</t>
   </si>
   <si>
-    <t>51488691</t>
-  </si>
-  <si>
     <t>07-28-2021</t>
   </si>
   <si>
     <t>51488698</t>
   </si>
   <si>
-    <t>Clone_DIR_C02</t>
-  </si>
-  <si>
     <t>51488696</t>
   </si>
   <si>
-    <t>51490130</t>
+    <t>51490999</t>
+  </si>
+  <si>
+    <t>DIR_C02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +238,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,17 +266,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -333,35 +324,38 @@
       <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -378,10 +372,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -416,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,7 +462,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,7 +567,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -582,13 +576,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -598,7 +592,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -607,7 +601,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -616,7 +610,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -626,12 +620,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -662,7 +656,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -681,7 +675,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -693,29 +687,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.85546875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="13" max="14" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="20" max="21" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="49.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="18" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -873,8 +867,8 @@
       <c r="Y2" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="11" t="s">
-        <v>63</v>
+      <c r="Z2" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -885,7 +879,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>41</v>
@@ -943,11 +937,11 @@
       <c r="Y3" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>59</v>
+      <c r="Z3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -1014,37 +1008,37 @@
       <c r="Y4" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="9" t="s">
-        <v>60</v>
+      <c r="Z4" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="AA4" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355AF071-EB01-4D54-8EB3-2108635B788E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FDFDD039-EEE3-4470-92CE-5C6D96895926}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Input" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -211,12 +211,28 @@
   </si>
   <si>
     <t>DIR_C02</t>
+  </si>
+  <si>
+    <t>Clone Ref ID</t>
+  </si>
+  <si>
+    <t>Clone_DIR_C02</t>
+  </si>
+  <si>
+    <t>51495349</t>
+  </si>
+  <si>
+    <t>51495350</t>
+  </si>
+  <si>
+    <t>51495351</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +254,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +286,38 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -334,28 +380,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="9" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -372,10 +442,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -410,7 +480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,7 +532,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,7 +637,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -576,13 +646,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -592,7 +662,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -601,7 +671,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -610,7 +680,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -620,12 +690,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -656,7 +726,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -675,7 +745,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -687,32 +757,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="49.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="18" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="20" max="21" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -794,8 +865,11 @@
       <c r="AA1" t="s">
         <v>15</v>
       </c>
+      <c r="AB1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -867,11 +941,11 @@
       <c r="Y2" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="10" t="s">
-        <v>61</v>
+      <c r="Z2" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -937,14 +1011,17 @@
       <c r="Y3" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="9" t="s">
-        <v>60</v>
+      <c r="Z3" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="AB3" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1008,37 +1085,37 @@
       <c r="Y4" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="8" t="s">
-        <v>59</v>
+      <c r="Z4" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="AA4" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FDFDD039-EEE3-4470-92CE-5C6D96895926}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{74C861C9-7E35-4E1C-AC17-A67E988E76F3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -81,9 +81,6 @@
     <t>DIR_C01</t>
   </si>
   <si>
-    <t>Residential</t>
-  </si>
-  <si>
     <t>Full Truckload</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>shipmentInformation</t>
-  </si>
-  <si>
     <t>Test4321</t>
   </si>
   <si>
@@ -147,12 +141,6 @@
     <t>DIR_C03</t>
   </si>
   <si>
-    <t>90001</t>
-  </si>
-  <si>
-    <t>10011</t>
-  </si>
-  <si>
     <t>222</t>
   </si>
   <si>
@@ -198,18 +186,6 @@
     <t>Bags</t>
   </si>
   <si>
-    <t>07-28-2021</t>
-  </si>
-  <si>
-    <t>51488698</t>
-  </si>
-  <si>
-    <t>51488696</t>
-  </si>
-  <si>
-    <t>51490999</t>
-  </si>
-  <si>
     <t>DIR_C02</t>
   </si>
   <si>
@@ -219,13 +195,58 @@
     <t>Clone_DIR_C02</t>
   </si>
   <si>
-    <t>51495349</t>
-  </si>
-  <si>
-    <t>51495350</t>
-  </si>
-  <si>
-    <t>51495351</t>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>pickUpLocationName</t>
+  </si>
+  <si>
+    <t>AutoCom90001</t>
+  </si>
+  <si>
+    <t>dropOffLocationName</t>
+  </si>
+  <si>
+    <t>AutoCom10011</t>
+  </si>
+  <si>
+    <t>DeliveryFrequency1</t>
+  </si>
+  <si>
+    <t>FC Test Carrier</t>
+  </si>
+  <si>
+    <t>51497834</t>
+  </si>
+  <si>
+    <t>51497836</t>
+  </si>
+  <si>
+    <t>09-29-2021</t>
+  </si>
+  <si>
+    <t>51497838</t>
+  </si>
+  <si>
+    <t>CloneOrderId</t>
+  </si>
+  <si>
+    <t>51497863</t>
+  </si>
+  <si>
+    <t>51498333</t>
+  </si>
+  <si>
+    <t>51498334</t>
+  </si>
+  <si>
+    <t>10-02-2021</t>
+  </si>
+  <si>
+    <t>51498335</t>
+  </si>
+  <si>
+    <t>51498336</t>
   </si>
 </sst>
 </file>
@@ -233,7 +254,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,19 +263,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF757575"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,11 +292,21 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
       </patternFill>
@@ -316,13 +341,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -370,15 +450,54 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -405,21 +524,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="5" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="7" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="8" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -758,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,328 +891,381 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="13" max="14" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="20" max="21" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.07421875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="20" max="21" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.08984375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row ht="15.75" r="1" spans="1:32" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA4" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1098,12 +1273,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row ht="15.75" r="1" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>51498336</t>
+  </si>
+  <si>
+    <t>51498486</t>
+  </si>
+  <si>
+    <t>51498487</t>
+  </si>
+  <si>
+    <t>51498488</t>
   </si>
 </sst>
 </file>
@@ -269,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,8 +390,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -520,11 +569,39 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -541,7 +618,11 @@
     <xf applyBorder="true" applyFill="true" borderId="16" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="18" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="20" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="30" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1059,8 +1140,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>70</v>
+      <c r="Q2" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="1" t="s">
@@ -1143,8 +1224,8 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>71</v>
+      <c r="Q3" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>73</v>
@@ -1229,8 +1310,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="16" t="s">
-        <v>74</v>
+      <c r="Q4" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>51498488</t>
+  </si>
+  <si>
+    <t>51499631</t>
+  </si>
+  <si>
+    <t>51499632</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>51499633</t>
+  </si>
+  <si>
+    <t>51499634</t>
   </si>
 </sst>
 </file>
@@ -278,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,8 +445,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -597,11 +682,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -622,7 +756,14 @@
     <xf applyBorder="true" applyFill="true" borderId="24" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="26" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="28" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="30" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="40" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="42" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="44" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1140,8 +1281,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="18" t="s">
-        <v>75</v>
+      <c r="Q2" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="1" t="s">
@@ -1224,11 +1365,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>73</v>
+      <c r="Q3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -1255,8 +1396,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="13" t="s">
-        <v>72</v>
+      <c r="AD3" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -1310,8 +1451,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="20" t="s">
-        <v>77</v>
+      <c r="Q4" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -271,6 +271,21 @@
   </si>
   <si>
     <t>51499634</t>
+  </si>
+  <si>
+    <t>51499700</t>
+  </si>
+  <si>
+    <t>51499701</t>
+  </si>
+  <si>
+    <t>10-12-2021</t>
+  </si>
+  <si>
+    <t>51499702</t>
+  </si>
+  <si>
+    <t>51499703</t>
   </si>
 </sst>
 </file>
@@ -293,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,8 +530,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -731,11 +816,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -763,7 +897,14 @@
     <xf applyBorder="true" applyFill="true" borderId="38" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="42" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="44" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="46" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="50" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="54" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="58" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1281,8 +1422,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="22" t="s">
-        <v>78</v>
+      <c r="Q2" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="1" t="s">
@@ -1365,11 +1506,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>81</v>
+      <c r="Q3" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -1396,8 +1537,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="24" t="s">
-        <v>80</v>
+      <c r="AD3" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -1451,8 +1592,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="27" t="s">
-        <v>82</v>
+      <c r="Q4" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -286,6 +286,21 @@
   </si>
   <si>
     <t>51499703</t>
+  </si>
+  <si>
+    <t>51500043</t>
+  </si>
+  <si>
+    <t>51500044</t>
+  </si>
+  <si>
+    <t>10-16-2021</t>
+  </si>
+  <si>
+    <t>51500047</t>
+  </si>
+  <si>
+    <t>51500054</t>
   </si>
 </sst>
 </file>
@@ -308,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="59">
+  <fills count="73">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,8 +615,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -865,11 +950,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -904,7 +1038,14 @@
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="54" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="58" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="58" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="60" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="62" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="64" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="66" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="68" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="70" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="72" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1422,8 +1563,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="29" t="s">
-        <v>83</v>
+      <c r="Q2" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="1" t="s">
@@ -1506,11 +1647,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>86</v>
+      <c r="Q3" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -1537,8 +1678,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="31" t="s">
-        <v>85</v>
+      <c r="AD3" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -1592,8 +1733,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="34" t="s">
-        <v>87</v>
+      <c r="Q4" s="41" t="s">
+        <v>92</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>51500054</t>
+  </si>
+  <si>
+    <t>51500206</t>
   </si>
 </sst>
 </file>
@@ -323,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="73">
+  <fills count="75">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,8 +688,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="73">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -999,11 +1012,18 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -1045,7 +1065,8 @@
     <xf applyBorder="true" applyFill="true" borderId="66" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="68" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="70" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="72" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="72" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1733,8 +1754,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="41" t="s">
-        <v>92</v>
+      <c r="Q4" s="42" t="s">
+        <v>93</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -304,6 +304,36 @@
   </si>
   <si>
     <t>51500206</t>
+  </si>
+  <si>
+    <t>51500915</t>
+  </si>
+  <si>
+    <t>51500918</t>
+  </si>
+  <si>
+    <t>10-27-2021</t>
+  </si>
+  <si>
+    <t>51500920</t>
+  </si>
+  <si>
+    <t>51500921</t>
+  </si>
+  <si>
+    <t>51501022</t>
+  </si>
+  <si>
+    <t>51501023</t>
+  </si>
+  <si>
+    <t>10-28-2021</t>
+  </si>
+  <si>
+    <t>51501024</t>
+  </si>
+  <si>
+    <t>51501025</t>
   </si>
 </sst>
 </file>
@@ -326,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="75">
+  <fills count="101">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,8 +728,138 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="75">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -1019,11 +1179,102 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -1066,7 +1317,20 @@
     <xf applyBorder="true" applyFill="true" borderId="68" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="70" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="72" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="74" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="74" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="76" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="78" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="80" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="82" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="84" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="86" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="88" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="90" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="92" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="94" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="96" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="98" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="100" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1584,8 +1848,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="36" t="s">
-        <v>88</v>
+      <c r="Q2" s="50" t="s">
+        <v>99</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="1" t="s">
@@ -1668,11 +1932,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>91</v>
+      <c r="Q3" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>102</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -1699,8 +1963,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="38" t="s">
-        <v>90</v>
+      <c r="AD3" s="52" t="s">
+        <v>101</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -1754,8 +2018,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="42" t="s">
-        <v>93</v>
+      <c r="Q4" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="131">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -334,6 +334,87 @@
   </si>
   <si>
     <t>51501025</t>
+  </si>
+  <si>
+    <t>51502034</t>
+  </si>
+  <si>
+    <t>51502035</t>
+  </si>
+  <si>
+    <t>10-31-2021</t>
+  </si>
+  <si>
+    <t>51502036</t>
+  </si>
+  <si>
+    <t>51502037</t>
+  </si>
+  <si>
+    <t>51502093</t>
+  </si>
+  <si>
+    <t>51502094</t>
+  </si>
+  <si>
+    <t>11-01-2021</t>
+  </si>
+  <si>
+    <t>51502095</t>
+  </si>
+  <si>
+    <t>51502096</t>
+  </si>
+  <si>
+    <t>51502244</t>
+  </si>
+  <si>
+    <t>51502251</t>
+  </si>
+  <si>
+    <t>11-02-2021</t>
+  </si>
+  <si>
+    <t>51502252</t>
+  </si>
+  <si>
+    <t>51502253</t>
+  </si>
+  <si>
+    <t>51502923</t>
+  </si>
+  <si>
+    <t>51502924</t>
+  </si>
+  <si>
+    <t>11-04-2021</t>
+  </si>
+  <si>
+    <t>51502925</t>
+  </si>
+  <si>
+    <t>51502926</t>
+  </si>
+  <si>
+    <t>51502928</t>
+  </si>
+  <si>
+    <t>51502929</t>
+  </si>
+  <si>
+    <t>51503454</t>
+  </si>
+  <si>
+    <t>51503455</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>51503456</t>
+  </si>
+  <si>
+    <t>51503457</t>
   </si>
 </sst>
 </file>
@@ -356,7 +437,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="101">
+  <fills count="165">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,8 +939,328 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="101">
+  <borders count="165">
     <border>
       <left/>
       <right/>
@@ -1270,11 +1671,235 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -1330,7 +1955,39 @@
     <xf applyBorder="true" applyFill="true" borderId="94" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="96" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="98" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="100" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="100" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="102" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="104" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="106" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="108" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="110" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="112" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="114" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="116" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="118" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="120" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="122" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="124" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="126" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="128" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="130" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="132" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="134" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="136" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="138" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="140" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="142" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="144" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="146" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="148" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="150" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="152" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="154" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="156" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="158" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="160" fillId="160" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="162" fillId="162" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="164" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1848,8 +2505,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="50" t="s">
-        <v>99</v>
+      <c r="Q2" s="82" t="s">
+        <v>126</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="1" t="s">
@@ -1932,11 +2589,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="R3" s="54" t="s">
-        <v>102</v>
+      <c r="Q3" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="86" t="s">
+        <v>129</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -1963,8 +2620,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="52" t="s">
-        <v>101</v>
+      <c r="AD3" s="84" t="s">
+        <v>128</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -2018,8 +2675,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="55" t="s">
-        <v>103</v>
+      <c r="Q4" s="87" t="s">
+        <v>130</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -415,6 +415,18 @@
   </si>
   <si>
     <t>51503457</t>
+  </si>
+  <si>
+    <t>51518807</t>
+  </si>
+  <si>
+    <t>11-12-2021</t>
+  </si>
+  <si>
+    <t>51518808</t>
+  </si>
+  <si>
+    <t>51518809</t>
   </si>
 </sst>
 </file>
@@ -437,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="165">
+  <fills count="175">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1259,8 +1271,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="165">
+  <borders count="175">
     <border>
       <left/>
       <right/>
@@ -1895,11 +1957,46 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -1987,7 +2084,12 @@
     <xf applyBorder="true" applyFill="true" borderId="158" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="160" fillId="160" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="162" fillId="162" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="164" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="164" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="166" fillId="166" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="168" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="170" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="172" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="174" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2589,11 +2691,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="R3" s="86" t="s">
-        <v>129</v>
+      <c r="Q3" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="91" t="s">
+        <v>133</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -2620,8 +2722,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="84" t="s">
-        <v>128</v>
+      <c r="AD3" s="89" t="s">
+        <v>132</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -2675,8 +2777,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="87" t="s">
-        <v>130</v>
+      <c r="Q4" s="92" t="s">
+        <v>134</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -427,6 +427,21 @@
   </si>
   <si>
     <t>51518809</t>
+  </si>
+  <si>
+    <t>51522017</t>
+  </si>
+  <si>
+    <t>51522022</t>
+  </si>
+  <si>
+    <t>11-25-2021</t>
+  </si>
+  <si>
+    <t>51522023</t>
+  </si>
+  <si>
+    <t>51522027</t>
   </si>
 </sst>
 </file>
@@ -449,7 +464,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="175">
+  <fills count="185">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,8 +1336,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="175">
+  <borders count="185">
     <border>
       <left/>
       <right/>
@@ -1992,11 +2057,46 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -2089,7 +2189,12 @@
     <xf applyBorder="true" applyFill="true" borderId="168" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="170" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="172" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="174" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="174" fillId="174" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="176" fillId="176" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="178" fillId="178" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="180" fillId="180" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="182" fillId="182" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="184" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2607,8 +2712,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="82" t="s">
-        <v>126</v>
+      <c r="Q2" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="1" t="s">
@@ -2691,8 +2796,8 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="90" t="s">
-        <v>131</v>
+      <c r="Q3" s="96" t="s">
+        <v>138</v>
       </c>
       <c r="R3" s="91" t="s">
         <v>133</v>
@@ -2722,8 +2827,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="89" t="s">
-        <v>132</v>
+      <c r="AD3" s="95" t="s">
+        <v>137</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -2777,8 +2882,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="92" t="s">
-        <v>134</v>
+      <c r="Q4" s="97" t="s">
+        <v>139</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -442,6 +442,33 @@
   </si>
   <si>
     <t>51522027</t>
+  </si>
+  <si>
+    <t>51522220</t>
+  </si>
+  <si>
+    <t>51522221</t>
+  </si>
+  <si>
+    <t>11-27-2021</t>
+  </si>
+  <si>
+    <t>51522222</t>
+  </si>
+  <si>
+    <t>51522223</t>
+  </si>
+  <si>
+    <t>51522224</t>
+  </si>
+  <si>
+    <t>51522226</t>
+  </si>
+  <si>
+    <t>51522227</t>
+  </si>
+  <si>
+    <t>51522228</t>
   </si>
 </sst>
 </file>
@@ -464,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="185">
+  <fills count="209">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1386,8 +1413,128 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="185">
+  <borders count="209">
     <border>
       <left/>
       <right/>
@@ -2092,11 +2239,95 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="110">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -2194,7 +2425,19 @@
     <xf applyBorder="true" applyFill="true" borderId="178" fillId="178" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="180" fillId="180" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="182" fillId="182" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="184" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="184" fillId="184" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="186" fillId="186" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="188" fillId="188" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="190" fillId="190" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="192" fillId="192" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="194" fillId="194" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="196" fillId="196" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="198" fillId="198" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="200" fillId="200" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="202" fillId="202" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="204" fillId="204" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="206" fillId="206" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="208" borderId="208" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2712,8 +2955,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="93" t="s">
-        <v>135</v>
+      <c r="Q2" s="104" t="s">
+        <v>145</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="1" t="s">
@@ -2796,11 +3039,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="96" t="s">
-        <v>138</v>
-      </c>
-      <c r="R3" s="91" t="s">
-        <v>133</v>
+      <c r="Q3" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" s="108" t="s">
+        <v>147</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -2827,8 +3070,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="95" t="s">
-        <v>137</v>
+      <c r="AD3" s="106" t="s">
+        <v>142</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -2882,8 +3125,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="97" t="s">
-        <v>139</v>
+      <c r="Q4" s="109" t="s">
+        <v>148</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>12-02-2021</t>
+  </si>
+  <si>
+    <t>51522849</t>
+  </si>
+  <si>
+    <t>51522850</t>
+  </si>
+  <si>
+    <t>51522853</t>
+  </si>
+  <si>
+    <t>51522855</t>
   </si>
 </sst>
 </file>
@@ -257,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,8 +326,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -426,11 +498,53 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -441,7 +555,13 @@
     <xf applyBorder="1" applyFill="1" borderId="7" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="6" fillId="7" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -802,8 +922,8 @@
     <col min="14" max="14" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.07421875" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
     <col min="20" max="21" customWidth="true" width="18.0" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
@@ -959,8 +1079,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>66</v>
+      <c r="Q2" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -1043,11 +1163,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>67</v>
+      <c r="Q3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -1074,7 +1194,7 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="13" t="s">
         <v>70</v>
       </c>
       <c r="AE3" s="1" t="s">
@@ -1129,8 +1249,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="8" t="s">
-        <v>68</v>
+      <c r="Q4" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -247,6 +247,30 @@
   </si>
   <si>
     <t>51522855</t>
+  </si>
+  <si>
+    <t>51522891</t>
+  </si>
+  <si>
+    <t>51522892</t>
+  </si>
+  <si>
+    <t>51522893</t>
+  </si>
+  <si>
+    <t>51522896</t>
+  </si>
+  <si>
+    <t>51522898</t>
+  </si>
+  <si>
+    <t>12-03-2021</t>
+  </si>
+  <si>
+    <t>51522899</t>
+  </si>
+  <si>
+    <t>51522900</t>
   </si>
 </sst>
 </file>
@@ -269,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,8 +410,98 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -540,11 +654,74 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -561,7 +738,16 @@
     <xf applyBorder="true" applyFill="true" borderId="16" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="18" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="20" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1079,8 +1265,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>71</v>
+      <c r="Q2" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -1163,11 +1349,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>73</v>
+      <c r="Q3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -1194,8 +1380,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="13" t="s">
-        <v>70</v>
+      <c r="AD3" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -1249,8 +1435,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="16" t="s">
-        <v>74</v>
+      <c r="Q4" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -271,6 +271,21 @@
   </si>
   <si>
     <t>51522900</t>
+  </si>
+  <si>
+    <t>51524260</t>
+  </si>
+  <si>
+    <t>51524261</t>
+  </si>
+  <si>
+    <t>12-15-2021</t>
+  </si>
+  <si>
+    <t>51524262</t>
+  </si>
+  <si>
+    <t>51524263</t>
   </si>
 </sst>
 </file>
@@ -293,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,8 +515,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -717,11 +792,53 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -747,7 +864,13 @@
     <xf applyBorder="true" applyFill="true" borderId="34" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="38" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="40" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="42" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="46" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="50" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="52" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1265,8 +1388,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>78</v>
+      <c r="Q2" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -1349,11 +1472,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>81</v>
+      <c r="Q3" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -1380,8 +1503,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="22" t="s">
-        <v>80</v>
+      <c r="AD3" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -1435,8 +1558,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="25" t="s">
-        <v>82</v>
+      <c r="Q4" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -286,6 +286,21 @@
   </si>
   <si>
     <t>51524263</t>
+  </si>
+  <si>
+    <t>51524446</t>
+  </si>
+  <si>
+    <t>51524447</t>
+  </si>
+  <si>
+    <t>12-18-2021</t>
+  </si>
+  <si>
+    <t>51524448</t>
+  </si>
+  <si>
+    <t>51524449</t>
   </si>
 </sst>
 </file>
@@ -308,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="66">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,8 +590,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="53">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -834,11 +909,53 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -870,7 +987,13 @@
     <xf applyBorder="true" applyFill="true" borderId="46" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="50" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="52" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="54" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="58" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="60" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="62" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="64" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1388,8 +1511,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="26" t="s">
-        <v>83</v>
+      <c r="Q2" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -1472,11 +1595,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>86</v>
+      <c r="Q3" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>91</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -1503,8 +1626,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="28" t="s">
-        <v>85</v>
+      <c r="AD3" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -1558,8 +1681,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="31" t="s">
-        <v>87</v>
+      <c r="Q4" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/binaries/FCfiles/QA_538.xlsx
+++ b/binaries/FCfiles/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -301,6 +301,42 @@
   </si>
   <si>
     <t>51524449</t>
+  </si>
+  <si>
+    <t>51524921</t>
+  </si>
+  <si>
+    <t>51524923</t>
+  </si>
+  <si>
+    <t>12-23-2021</t>
+  </si>
+  <si>
+    <t>51524931</t>
+  </si>
+  <si>
+    <t>51524933</t>
+  </si>
+  <si>
+    <t>51524934</t>
+  </si>
+  <si>
+    <t>58471419</t>
+  </si>
+  <si>
+    <t>51525304</t>
+  </si>
+  <si>
+    <t>51525305</t>
+  </si>
+  <si>
+    <t>12-28-2021</t>
+  </si>
+  <si>
+    <t>51525306</t>
+  </si>
+  <si>
+    <t>51525307</t>
   </si>
 </sst>
 </file>
@@ -323,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="66">
+  <fills count="96">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,8 +686,158 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="65">
+  <borders count="95">
     <border>
       <left/>
       <right/>
@@ -951,11 +1137,116 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -993,7 +1284,22 @@
     <xf applyBorder="true" applyFill="true" borderId="58" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="60" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="62" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="64" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="64" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="66" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="68" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="70" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="72" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="74" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="76" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="78" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="80" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="82" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="84" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="86" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="88" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="90" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="92" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="94" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1511,8 +1817,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="32" t="s">
-        <v>88</v>
+      <c r="Q2" s="47" t="s">
+        <v>100</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -1595,11 +1901,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>91</v>
+      <c r="Q3" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>103</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -1626,8 +1932,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="34" t="s">
-        <v>90</v>
+      <c r="AD3" s="49" t="s">
+        <v>102</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -1681,8 +1987,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="37" t="s">
-        <v>92</v>
+      <c r="Q4" s="52" t="s">
+        <v>104</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">
